--- a/Project684_X. Ni(2004).xlsx
+++ b/Project684_X. Ni(2004).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8A3E03-FEE7-6E42-AE2B-0BDAC32F14CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDA9DE8-6763-444F-BF21-3C09DE43016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{DC4ABBBD-2611-AE4D-AA61-FAED97AB749A}"/>
+    <workbookView xWindow="16455" yWindow="1950" windowWidth="15945" windowHeight="18375" xr2:uid="{DC4ABBBD-2611-AE4D-AA61-FAED97AB749A}"/>
   </bookViews>
   <sheets>
     <sheet name="Project684" sheetId="1" r:id="rId1"/>
@@ -1080,55 +1080,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>36813</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>18406</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>817219</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>36812</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0739F52C-8E20-6A37-4688-2C222AB364C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8429856" y="294493"/>
-          <a:ext cx="10719536" cy="6699710"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1454,13 +1405,13 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.1640625" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.125" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>302</v>
       </c>
@@ -1471,7 +1422,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>305</v>
       </c>
@@ -1479,7 +1430,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1441,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1501,7 +1452,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1512,7 +1463,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1523,7 +1474,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1485,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1545,7 +1496,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1556,7 +1507,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1567,7 +1518,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1578,7 +1529,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1589,7 +1540,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1551,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1608,7 +1559,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1619,7 +1570,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1630,7 +1581,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1641,7 +1592,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1649,7 +1600,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1660,7 +1611,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1671,7 +1622,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1682,7 +1633,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1693,7 +1644,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1704,7 +1655,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1715,7 +1666,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1726,7 +1677,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1737,7 +1688,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1748,7 +1699,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1759,7 +1710,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1770,7 +1721,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1781,7 +1732,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1789,7 +1740,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1797,7 +1748,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1808,7 +1759,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1816,7 +1767,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1827,7 +1778,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1838,7 +1789,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1846,7 +1797,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1854,7 +1805,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1862,7 +1813,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1873,7 +1824,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1881,7 +1832,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1889,7 +1840,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1900,7 +1851,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1908,7 +1859,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1919,7 +1870,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1930,7 +1881,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1941,7 +1892,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -1952,7 +1903,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -1960,7 +1911,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1968,7 +1919,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -1979,7 +1930,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1990,7 +1941,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2001,7 +1952,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2012,7 +1963,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2023,7 +1974,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2031,7 +1982,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2039,7 +1990,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2050,7 +2001,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2061,7 +2012,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2072,7 +2023,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2083,7 +2034,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2094,7 +2045,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2105,7 +2056,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -2116,7 +2067,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2127,7 +2078,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -2138,7 +2089,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -2149,7 +2100,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2160,7 +2111,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -2171,7 +2122,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -2182,7 +2133,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -2193,7 +2144,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -2204,7 +2155,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -2215,7 +2166,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -2223,7 +2174,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -2231,7 +2182,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -2239,7 +2190,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -2250,7 +2201,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -2261,7 +2212,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -2272,7 +2223,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -2283,7 +2234,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -2294,7 +2245,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -2302,7 +2253,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -2313,7 +2264,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -2324,7 +2275,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2335,7 +2286,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -2346,7 +2297,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -2354,7 +2305,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -2362,7 +2313,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -2370,7 +2321,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -2378,7 +2329,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2386,7 +2337,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -2397,7 +2348,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -2408,7 +2359,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -2419,7 +2370,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -2430,7 +2381,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -2441,7 +2392,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -2452,7 +2403,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -2463,7 +2414,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -2474,7 +2425,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -2482,7 +2433,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -2490,7 +2441,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -2501,7 +2452,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -2512,7 +2463,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -2523,7 +2474,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -2534,7 +2485,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -2545,7 +2496,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -2553,7 +2504,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -2564,7 +2515,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -2575,7 +2526,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -2583,7 +2534,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -2594,7 +2545,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -2605,7 +2556,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -2616,7 +2567,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -2627,7 +2578,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -2638,7 +2589,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -2649,7 +2600,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -2660,7 +2611,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -2671,7 +2622,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -2682,7 +2633,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -2693,7 +2644,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -2704,7 +2655,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -2715,7 +2666,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -2726,7 +2677,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -2737,7 +2688,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -2748,7 +2699,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -2759,7 +2710,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -2770,7 +2721,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -2781,7 +2732,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -2792,7 +2743,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -2803,7 +2754,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -2811,7 +2762,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -2822,7 +2773,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -2833,7 +2784,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -2844,7 +2795,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -2855,7 +2806,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -2866,7 +2817,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -2877,7 +2828,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -2888,7 +2839,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -2899,7 +2850,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -2910,7 +2861,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -2921,7 +2872,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -2932,7 +2883,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -2943,7 +2894,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -2951,7 +2902,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -2959,7 +2910,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -2970,7 +2921,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -2981,7 +2932,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -2992,7 +2943,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -3003,7 +2954,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -3014,7 +2965,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -3025,7 +2976,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -3036,7 +2987,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -3047,7 +2998,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -3058,7 +3009,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -3069,7 +3020,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -3080,7 +3031,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -3088,7 +3039,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -3096,7 +3047,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -3107,7 +3058,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -3115,7 +3066,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -3123,7 +3074,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -3131,7 +3082,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -3142,7 +3093,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -3150,7 +3101,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -3158,7 +3109,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -3169,7 +3120,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -3177,7 +3128,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -3185,7 +3136,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -3193,7 +3144,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -3204,7 +3155,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -3212,7 +3163,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -3220,7 +3171,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -3228,7 +3179,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -3239,7 +3190,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -3250,7 +3201,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -3258,7 +3209,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -3269,7 +3220,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -3280,7 +3231,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -3288,7 +3239,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -3296,7 +3247,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -3304,7 +3255,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -3312,7 +3263,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -3323,7 +3274,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -3331,7 +3282,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -3342,7 +3293,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -3353,7 +3304,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -3364,7 +3315,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -3375,7 +3326,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -3386,7 +3337,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -3397,7 +3348,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -3408,7 +3359,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -3419,7 +3370,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -3430,7 +3381,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -3441,7 +3392,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -3452,7 +3403,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -3463,7 +3414,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -3474,7 +3425,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -3485,7 +3436,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -3496,7 +3447,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -3504,7 +3455,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -3512,7 +3463,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -3523,7 +3474,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -3534,7 +3485,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -3542,7 +3493,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -3553,7 +3504,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -3564,7 +3515,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -3572,7 +3523,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -3583,7 +3534,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -3594,7 +3545,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -3605,7 +3556,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -3616,7 +3567,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -3627,7 +3578,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -3638,7 +3589,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -3649,7 +3600,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -3660,7 +3611,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -3668,7 +3619,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -3679,7 +3630,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -3690,7 +3641,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -3701,7 +3652,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -3712,7 +3663,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -3723,7 +3674,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -3734,7 +3685,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -3745,7 +3696,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -3756,7 +3707,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -3767,7 +3718,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -3778,7 +3729,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -3789,7 +3740,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -3800,7 +3751,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -3811,7 +3762,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -3822,7 +3773,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -3833,7 +3784,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -3844,7 +3795,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -3855,7 +3806,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -3866,7 +3817,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -3874,7 +3825,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -3885,7 +3836,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -3896,7 +3847,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -3904,7 +3855,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -3915,7 +3866,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -3926,7 +3877,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -3937,7 +3888,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -3948,7 +3899,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -3956,7 +3907,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -3967,7 +3918,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -3978,7 +3929,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -3989,7 +3940,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -4000,7 +3951,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -4011,7 +3962,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -4022,7 +3973,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -4033,7 +3984,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -4044,7 +3995,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -4055,7 +4006,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -4066,7 +4017,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -4077,7 +4028,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -4085,7 +4036,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -4096,7 +4047,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -4107,7 +4058,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>255</v>
       </c>
@@ -4118,7 +4069,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>256</v>
       </c>
@@ -4129,7 +4080,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>257</v>
       </c>
@@ -4140,7 +4091,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>258</v>
       </c>
@@ -4151,7 +4102,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>259</v>
       </c>
@@ -4162,7 +4113,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>260</v>
       </c>
@@ -4173,7 +4124,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>261</v>
       </c>
@@ -4181,7 +4132,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>262</v>
       </c>
@@ -4192,7 +4143,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>263</v>
       </c>
@@ -4200,7 +4151,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>264</v>
       </c>
@@ -4211,7 +4162,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>265</v>
       </c>
@@ -4222,7 +4173,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>266</v>
       </c>
@@ -4233,7 +4184,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>267</v>
       </c>
@@ -4244,7 +4195,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>268</v>
       </c>
@@ -4255,7 +4206,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>269</v>
       </c>
@@ -4266,7 +4217,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>270</v>
       </c>
@@ -4274,7 +4225,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>271</v>
       </c>
@@ -4285,7 +4236,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>272</v>
       </c>
@@ -4296,7 +4247,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>273</v>
       </c>
@@ -4307,7 +4258,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>274</v>
       </c>
@@ -4318,7 +4269,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>275</v>
       </c>
@@ -4329,7 +4280,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>276</v>
       </c>
@@ -4340,7 +4291,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>277</v>
       </c>
@@ -4351,7 +4302,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>278</v>
       </c>
@@ -4362,7 +4313,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>279</v>
       </c>
@@ -4373,7 +4324,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>280</v>
       </c>
@@ -4384,7 +4335,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>281</v>
       </c>
@@ -4395,7 +4346,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>282</v>
       </c>
@@ -4406,7 +4357,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>283</v>
       </c>
@@ -4417,7 +4368,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>284</v>
       </c>
@@ -4428,7 +4379,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>285</v>
       </c>
@@ -4439,7 +4390,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>286</v>
       </c>
@@ -4450,7 +4401,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>287</v>
       </c>
@@ -4461,7 +4412,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>288</v>
       </c>
@@ -4472,7 +4423,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>289</v>
       </c>
@@ -4483,7 +4434,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>290</v>
       </c>
@@ -4494,7 +4445,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>291</v>
       </c>
@@ -4505,7 +4456,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>292</v>
       </c>
@@ -4516,7 +4467,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>293</v>
       </c>
@@ -4527,7 +4478,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>294</v>
       </c>
@@ -4538,7 +4489,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>295</v>
       </c>
@@ -4549,7 +4500,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>296</v>
       </c>
@@ -4560,7 +4511,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>297</v>
       </c>
@@ -4571,7 +4522,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>298</v>
       </c>
@@ -4582,7 +4533,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>299</v>
       </c>
@@ -4593,7 +4544,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>300</v>
       </c>
@@ -4604,7 +4555,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>301</v>
       </c>
@@ -4619,6 +4570,5 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>